--- a/topic (Autosaved).xlsx
+++ b/topic (Autosaved).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2011" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2013" uniqueCount="537">
   <si>
     <t>reds</t>
   </si>
@@ -1629,6 +1629,12 @@
   </si>
   <si>
     <t>says</t>
+  </si>
+  <si>
+    <t>svd news</t>
+  </si>
+  <si>
+    <t>`</t>
   </si>
 </sst>
 </file>
@@ -2014,8 +2020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C96" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="81" workbookViewId="0">
-      <selection activeCell="G127" sqref="G127"/>
+    <sheetView tabSelected="1" topLeftCell="F124" zoomScale="127" zoomScaleNormal="127" zoomScalePageLayoutView="127" workbookViewId="0">
+      <selection activeCell="G129" sqref="G129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7152,7 +7158,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="113" spans="8:38" x14ac:dyDescent="0.2">
+    <row r="113" spans="7:38" x14ac:dyDescent="0.2">
       <c r="H113" s="5" t="s">
         <v>503</v>
       </c>
@@ -7244,7 +7250,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="114" spans="8:38" x14ac:dyDescent="0.2">
+    <row r="114" spans="7:38" x14ac:dyDescent="0.2">
       <c r="H114" s="5" t="s">
         <v>504</v>
       </c>
@@ -7336,7 +7342,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="115" spans="8:38" x14ac:dyDescent="0.2">
+    <row r="115" spans="7:38" x14ac:dyDescent="0.2">
       <c r="H115" s="5" t="s">
         <v>505</v>
       </c>
@@ -7428,7 +7434,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="116" spans="8:38" x14ac:dyDescent="0.2">
+    <row r="116" spans="7:38" x14ac:dyDescent="0.2">
       <c r="H116" s="5" t="s">
         <v>506</v>
       </c>
@@ -7460,7 +7466,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="117" spans="8:38" x14ac:dyDescent="0.2">
+    <row r="117" spans="7:38" x14ac:dyDescent="0.2">
       <c r="H117" s="5" t="s">
         <v>507</v>
       </c>
@@ -7492,7 +7498,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="118" spans="8:38" x14ac:dyDescent="0.2">
+    <row r="118" spans="7:38" x14ac:dyDescent="0.2">
       <c r="H118" s="5" t="s">
         <v>508</v>
       </c>
@@ -7524,7 +7530,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="119" spans="8:38" x14ac:dyDescent="0.2">
+    <row r="119" spans="7:38" x14ac:dyDescent="0.2">
       <c r="H119" s="5" t="s">
         <v>509</v>
       </c>
@@ -7556,7 +7562,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="120" spans="8:38" x14ac:dyDescent="0.2">
+    <row r="120" spans="7:38" x14ac:dyDescent="0.2">
       <c r="H120" s="5" t="s">
         <v>510</v>
       </c>
@@ -7588,7 +7594,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="121" spans="8:38" x14ac:dyDescent="0.2">
+    <row r="121" spans="7:38" x14ac:dyDescent="0.2">
       <c r="H121" s="5" t="s">
         <v>511</v>
       </c>
@@ -7620,7 +7626,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="122" spans="8:38" x14ac:dyDescent="0.2">
+    <row r="122" spans="7:38" x14ac:dyDescent="0.2">
       <c r="H122" s="5" t="s">
         <v>512</v>
       </c>
@@ -7652,7 +7658,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="123" spans="8:38" x14ac:dyDescent="0.2">
+    <row r="123" spans="7:38" x14ac:dyDescent="0.2">
       <c r="H123" s="5" t="s">
         <v>513</v>
       </c>
@@ -7684,7 +7690,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="124" spans="8:38" x14ac:dyDescent="0.2">
+    <row r="124" spans="7:38" x14ac:dyDescent="0.2">
       <c r="H124" s="5" t="s">
         <v>514</v>
       </c>
@@ -7716,7 +7722,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="125" spans="8:38" x14ac:dyDescent="0.2">
+    <row r="125" spans="7:38" x14ac:dyDescent="0.2">
       <c r="H125" s="5" t="s">
         <v>515</v>
       </c>
@@ -7748,7 +7754,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="126" spans="8:38" x14ac:dyDescent="0.2">
+    <row r="126" spans="7:38" x14ac:dyDescent="0.2">
       <c r="H126" s="5" t="s">
         <v>516</v>
       </c>
@@ -7780,7 +7786,10 @@
         <v>534</v>
       </c>
     </row>
-    <row r="128" spans="8:38" x14ac:dyDescent="0.2">
+    <row r="128" spans="7:38" x14ac:dyDescent="0.2">
+      <c r="G128" t="s">
+        <v>535</v>
+      </c>
       <c r="H128" s="5" t="s">
         <v>178</v>
       </c>
@@ -7812,7 +7821,10 @@
         <v>187</v>
       </c>
     </row>
-    <row r="129" spans="8:17" x14ac:dyDescent="0.2">
+    <row r="129" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G129" t="s">
+        <v>536</v>
+      </c>
       <c r="H129" s="5" t="s">
         <v>498</v>
       </c>
@@ -7844,7 +7856,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="130" spans="8:17" x14ac:dyDescent="0.2">
+    <row r="130" spans="7:17" x14ac:dyDescent="0.2">
       <c r="H130" s="5" t="s">
         <v>499</v>
       </c>
@@ -7876,7 +7888,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="131" spans="8:17" x14ac:dyDescent="0.2">
+    <row r="131" spans="7:17" x14ac:dyDescent="0.2">
       <c r="H131" s="5" t="s">
         <v>500</v>
       </c>
@@ -7908,7 +7920,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="132" spans="8:17" x14ac:dyDescent="0.2">
+    <row r="132" spans="7:17" x14ac:dyDescent="0.2">
       <c r="H132" s="5" t="s">
         <v>501</v>
       </c>
@@ -7940,7 +7952,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="133" spans="8:17" x14ac:dyDescent="0.2">
+    <row r="133" spans="7:17" x14ac:dyDescent="0.2">
       <c r="H133" s="5">
         <v>151</v>
       </c>
@@ -7972,7 +7984,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="134" spans="8:17" x14ac:dyDescent="0.2">
+    <row r="134" spans="7:17" x14ac:dyDescent="0.2">
       <c r="H134" s="5" t="s">
         <v>502</v>
       </c>
@@ -8004,7 +8016,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="135" spans="8:17" x14ac:dyDescent="0.2">
+    <row r="135" spans="7:17" x14ac:dyDescent="0.2">
       <c r="H135" s="5" t="s">
         <v>503</v>
       </c>
@@ -8036,7 +8048,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="136" spans="8:17" x14ac:dyDescent="0.2">
+    <row r="136" spans="7:17" x14ac:dyDescent="0.2">
       <c r="H136" s="5" t="s">
         <v>504</v>
       </c>
@@ -8068,7 +8080,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="137" spans="8:17" x14ac:dyDescent="0.2">
+    <row r="137" spans="7:17" x14ac:dyDescent="0.2">
       <c r="H137" s="5" t="s">
         <v>505</v>
       </c>
@@ -8100,7 +8112,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="138" spans="8:17" x14ac:dyDescent="0.2">
+    <row r="138" spans="7:17" x14ac:dyDescent="0.2">
       <c r="H138" s="5" t="s">
         <v>506</v>
       </c>
@@ -8132,7 +8144,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="139" spans="8:17" x14ac:dyDescent="0.2">
+    <row r="139" spans="7:17" x14ac:dyDescent="0.2">
       <c r="H139" s="5" t="s">
         <v>507</v>
       </c>
@@ -8164,7 +8176,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="140" spans="8:17" x14ac:dyDescent="0.2">
+    <row r="140" spans="7:17" x14ac:dyDescent="0.2">
       <c r="H140" s="5" t="s">
         <v>508</v>
       </c>
@@ -8196,7 +8208,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="141" spans="8:17" x14ac:dyDescent="0.2">
+    <row r="141" spans="7:17" x14ac:dyDescent="0.2">
       <c r="H141" s="5" t="s">
         <v>509</v>
       </c>
@@ -8228,7 +8240,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="142" spans="8:17" x14ac:dyDescent="0.2">
+    <row r="142" spans="7:17" x14ac:dyDescent="0.2">
       <c r="H142" s="5" t="s">
         <v>510</v>
       </c>
@@ -8260,7 +8272,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="143" spans="8:17" x14ac:dyDescent="0.2">
+    <row r="143" spans="7:17" x14ac:dyDescent="0.2">
       <c r="H143" s="5" t="s">
         <v>511</v>
       </c>
@@ -8292,7 +8304,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="144" spans="8:17" x14ac:dyDescent="0.2">
+    <row r="144" spans="7:17" x14ac:dyDescent="0.2">
       <c r="H144" s="5" t="s">
         <v>512</v>
       </c>
